--- a/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
+++ b/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU48"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +670,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -719,7 +725,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -728,17 +733,6 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -781,12 +775,6 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -842,7 +830,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -851,17 +838,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -904,12 +880,6 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -965,7 +935,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -974,17 +943,6 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1027,12 +985,6 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -1088,7 +1040,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1097,17 +1048,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1153,11 +1093,6 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1213,7 +1148,6 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1222,17 +1156,6 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1278,11 +1201,6 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1338,7 +1256,6 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1347,17 +1264,6 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1403,11 +1309,6 @@
       <c r="AO7" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1463,7 +1364,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1472,17 +1372,6 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1528,11 +1417,6 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1588,7 +1472,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1597,17 +1480,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1653,11 +1525,6 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1713,7 +1580,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1722,17 +1588,6 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1778,11 +1633,6 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1838,7 +1688,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1847,17 +1696,6 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -1903,11 +1741,6 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1963,7 +1796,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1972,17 +1804,6 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2028,11 +1849,6 @@
       <c r="AO12" t="n">
         <v>0</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2088,7 +1904,6 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2097,17 +1912,6 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2153,11 +1957,6 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2213,7 +2012,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -2222,17 +2020,6 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2278,11 +2065,6 @@
       <c r="AO14" t="n">
         <v>0</v>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -2338,7 +2120,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2347,17 +2128,6 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2403,11 +2173,6 @@
       <c r="AO15" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2463,7 +2228,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2472,17 +2236,6 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2528,11 +2281,6 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2588,7 +2336,6 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2597,17 +2344,6 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2653,11 +2389,6 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2713,7 +2444,6 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2722,17 +2452,6 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -2778,11 +2497,6 @@
       <c r="AO18" t="n">
         <v>0</v>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2838,7 +2552,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2847,17 +2560,6 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -2903,11 +2605,6 @@
       <c r="AO19" t="n">
         <v>0</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2963,7 +2660,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2972,17 +2668,6 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3028,11 +2713,6 @@
       <c r="AO20" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3088,7 +2768,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3097,17 +2776,6 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3153,11 +2821,6 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3213,7 +2876,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3222,17 +2884,6 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3278,11 +2929,6 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3338,7 +2984,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3347,17 +2992,6 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3403,11 +3037,6 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3463,7 +3092,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3472,17 +3100,6 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3528,11 +3145,6 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3588,7 +3200,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3597,17 +3208,6 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -3653,11 +3253,6 @@
       <c r="AO25" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3713,7 +3308,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3722,17 +3316,6 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -3778,11 +3361,6 @@
       <c r="AO26" t="n">
         <v>0</v>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3838,7 +3416,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3847,17 +3424,6 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -3903,11 +3469,6 @@
       <c r="AO27" t="n">
         <v>0</v>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3963,7 +3524,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3972,17 +3532,6 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4028,11 +3577,6 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4088,7 +3632,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4097,17 +3640,6 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4153,11 +3685,6 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4213,7 +3740,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4222,17 +3748,6 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4278,11 +3793,6 @@
       <c r="AO30" t="n">
         <v>0</v>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4338,7 +3848,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4347,17 +3856,6 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4403,11 +3901,6 @@
       <c r="AO31" t="n">
         <v>0</v>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4463,7 +3956,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4472,17 +3964,6 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4528,11 +4009,6 @@
       <c r="AO32" t="n">
         <v>0</v>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4588,7 +4064,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4597,17 +4072,6 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -4653,11 +4117,6 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4713,7 +4172,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4722,17 +4180,6 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -4778,11 +4225,6 @@
       <c r="AO34" t="n">
         <v>0</v>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4838,7 +4280,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4847,17 +4288,6 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -4903,11 +4333,6 @@
       <c r="AO35" t="n">
         <v>0</v>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4963,7 +4388,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4972,17 +4396,6 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5028,11 +4441,6 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5088,7 +4496,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5097,17 +4504,6 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5153,11 +4549,6 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5213,7 +4604,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5222,17 +4612,6 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5278,11 +4657,6 @@
       <c r="AO38" t="n">
         <v>0</v>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5338,7 +4712,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5347,17 +4720,6 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5403,11 +4765,6 @@
       <c r="AO39" t="n">
         <v>0</v>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5463,7 +4820,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5472,17 +4828,6 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5528,11 +4873,6 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5588,7 +4928,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5597,17 +4936,6 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -5653,11 +4981,6 @@
       <c r="AO41" t="n">
         <v>0</v>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5713,7 +5036,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5722,17 +5044,6 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -5778,11 +5089,6 @@
       <c r="AO42" t="n">
         <v>0</v>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5838,7 +5144,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5847,17 +5152,6 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -5903,11 +5197,6 @@
       <c r="AO43" t="n">
         <v>0</v>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5963,7 +5252,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5972,17 +5260,6 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6028,11 +5305,6 @@
       <c r="AO44" t="n">
         <v>0</v>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6088,7 +5360,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6097,17 +5368,6 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6153,11 +5413,6 @@
       <c r="AO45" t="n">
         <v>0</v>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6213,7 +5468,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6222,17 +5476,6 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6278,11 +5521,6 @@
       <c r="AO46" t="n">
         <v>0</v>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6338,7 +5576,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6347,17 +5584,6 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -6403,11 +5629,6 @@
       <c r="AO47" t="n">
         <v>0</v>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6463,7 +5684,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6472,17 +5692,6 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6528,14 +5737,82 @@
       <c r="AO48" t="n">
         <v>0</v>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr">
         <is>
           <t>Under Procurement</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
+++ b/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
@@ -733,46 +733,7 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="inlineStr">
@@ -838,46 +799,7 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="inlineStr">
@@ -943,46 +865,7 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="inlineStr">
@@ -1048,46 +931,7 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
@@ -1156,46 +1000,7 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
@@ -1264,46 +1069,7 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
@@ -1372,46 +1138,7 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
@@ -1480,46 +1207,7 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
@@ -1588,46 +1276,7 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
@@ -1696,46 +1345,7 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
@@ -1804,46 +1414,7 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
@@ -1912,46 +1483,7 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
@@ -2020,46 +1552,7 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
@@ -2128,46 +1621,7 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
@@ -2236,46 +1690,7 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
@@ -2344,46 +1759,7 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
@@ -2452,46 +1828,7 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
@@ -2560,46 +1897,7 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
@@ -2668,46 +1966,7 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
         <v>0</v>
       </c>
       <c r="AO20" t="n">
@@ -2776,46 +2035,7 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
         <v>0</v>
       </c>
       <c r="AO21" t="n">
@@ -2884,46 +2104,7 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
         <v>0</v>
       </c>
       <c r="AO22" t="n">
@@ -2992,46 +2173,7 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
         <v>0</v>
       </c>
       <c r="AO23" t="n">
@@ -3100,46 +2242,7 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
         <v>0</v>
       </c>
       <c r="AO24" t="n">
@@ -3208,46 +2311,7 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
         <v>0</v>
       </c>
       <c r="AO25" t="n">
@@ -3316,46 +2380,7 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
         <v>0</v>
       </c>
       <c r="AO26" t="n">
@@ -3424,46 +2449,7 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
         <v>0</v>
       </c>
       <c r="AO27" t="n">
@@ -3532,46 +2518,7 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
         <v>0</v>
       </c>
       <c r="AO28" t="n">
@@ -3640,46 +2587,7 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
         <v>0</v>
       </c>
       <c r="AO29" t="n">
@@ -3748,46 +2656,7 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
         <v>0</v>
       </c>
       <c r="AO30" t="n">
@@ -3856,46 +2725,7 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
         <v>0</v>
       </c>
       <c r="AO31" t="n">
@@ -3964,46 +2794,7 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
         <v>0</v>
       </c>
       <c r="AO32" t="n">
@@ -4072,46 +2863,7 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
         <v>0</v>
       </c>
       <c r="AO33" t="n">
@@ -4180,46 +2932,7 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
         <v>0</v>
       </c>
       <c r="AO34" t="n">
@@ -4288,46 +3001,7 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
         <v>0</v>
       </c>
       <c r="AO35" t="n">
@@ -4396,46 +3070,7 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
         <v>0</v>
       </c>
       <c r="AO36" t="n">
@@ -4504,46 +3139,7 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
         <v>0</v>
       </c>
       <c r="AO37" t="n">
@@ -4612,46 +3208,7 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
         <v>0</v>
       </c>
       <c r="AO38" t="n">
@@ -4720,46 +3277,7 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
         <v>0</v>
       </c>
       <c r="AO39" t="n">
@@ -4828,46 +3346,7 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
         <v>0</v>
       </c>
       <c r="AO40" t="n">
@@ -4936,46 +3415,7 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
         <v>0</v>
       </c>
       <c r="AO41" t="n">
@@ -5044,46 +3484,7 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
         <v>0</v>
       </c>
       <c r="AO42" t="n">
@@ -5152,46 +3553,7 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
         <v>0</v>
       </c>
       <c r="AO43" t="n">
@@ -5260,46 +3622,7 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
         <v>0</v>
       </c>
       <c r="AO44" t="n">
@@ -5368,46 +3691,7 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
         <v>0</v>
       </c>
       <c r="AO45" t="n">
@@ -5476,46 +3760,7 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
         <v>0</v>
       </c>
       <c r="AO46" t="n">
@@ -5584,46 +3829,7 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
         <v>0</v>
       </c>
       <c r="AO47" t="n">
@@ -5692,46 +3898,7 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
         <v>0</v>
       </c>
       <c r="AO48" t="n">

--- a/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
+++ b/Filtered_By_Region/BARMM/BARMM_REPAIR.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV48"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,3294 +627,5044 @@
           <t>No. of CL Terminated</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites (original)</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Classrooms (original)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Project Allocation (original)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Cotabato City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>131248</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>L.R. Sebastian ES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>COTABATO CITY</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Repair of classrooms</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>2001691</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>under procurement</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>under procurement</t>
-        </is>
-      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr"/>
+      <c r="Q2" s="3" t="inlineStr"/>
+      <c r="R2" s="3" t="inlineStr"/>
+      <c r="S2" s="3" t="inlineStr"/>
+      <c r="T2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="inlineStr"/>
+      <c r="V2" s="3" t="inlineStr"/>
+      <c r="W2" s="3" t="inlineStr"/>
+      <c r="X2" s="3" t="inlineStr"/>
+      <c r="Y2" s="3" t="inlineStr"/>
+      <c r="Z2" s="3" t="inlineStr"/>
+      <c r="AA2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Cotabato City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>131243</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>P.C. Hill ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>COTABATO CITY</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Repair of classrooms</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>4560581</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>under procurement</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>under procurement</t>
-        </is>
-      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
+      <c r="X3" s="3" t="inlineStr"/>
+      <c r="Y3" s="3" t="inlineStr"/>
+      <c r="Z3" s="3" t="inlineStr"/>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Cotabato City</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>131254</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Tamontaka Central School</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>COTABATO CITY</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Repair of classrooms</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>3169591</v>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>under procurement</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>under procurement</t>
-        </is>
-      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="inlineStr"/>
+      <c r="S4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr"/>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr"/>
+      <c r="W4" s="3" t="inlineStr"/>
+      <c r="X4" s="3" t="inlineStr"/>
+      <c r="Y4" s="3" t="inlineStr"/>
+      <c r="Z4" s="3" t="inlineStr"/>
+      <c r="AA4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>133137</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Bato-Bato ES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>AKBAR</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr"/>
+      <c r="W5" s="3" t="inlineStr"/>
+      <c r="X5" s="3" t="inlineStr"/>
+      <c r="Y5" s="3" t="inlineStr"/>
+      <c r="Z5" s="3" t="inlineStr"/>
+      <c r="AA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>133186</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Caddayan ES</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>AKBAR</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr"/>
+      <c r="W6" s="3" t="inlineStr"/>
+      <c r="X6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="inlineStr"/>
+      <c r="Z6" s="3" t="inlineStr"/>
+      <c r="AA6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>133196</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Languyan ES</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>HADJI MOHAMMAD AJUL</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="L7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr"/>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="inlineStr"/>
+      <c r="X7" s="3" t="inlineStr"/>
+      <c r="Y7" s="3" t="inlineStr"/>
+      <c r="Z7" s="3" t="inlineStr"/>
+      <c r="AA7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>133062</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Landungan ES</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>LANTAWAN</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr"/>
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr"/>
+      <c r="Y8" s="3" t="inlineStr"/>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>133072</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Lukbaldaya PS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>LANTAWAN</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="L9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="inlineStr"/>
+      <c r="X9" s="3" t="inlineStr"/>
+      <c r="Y9" s="3" t="inlineStr"/>
+      <c r="Z9" s="3" t="inlineStr"/>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>133046</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Tairan ES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>LANTAWAN</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="L10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr"/>
+      <c r="R10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr"/>
+      <c r="W10" s="3" t="inlineStr"/>
+      <c r="X10" s="3" t="inlineStr"/>
+      <c r="Y10" s="3" t="inlineStr"/>
+      <c r="Z10" s="3" t="inlineStr"/>
+      <c r="AA10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>304934</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Bubuan NHS-Saluping Annex</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>TABUAN-LASA</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="inlineStr"/>
+      <c r="Q11" s="3" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr"/>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="3" t="inlineStr"/>
+      <c r="U11" s="3" t="inlineStr"/>
+      <c r="V11" s="3" t="inlineStr"/>
+      <c r="W11" s="3" t="inlineStr"/>
+      <c r="X11" s="3" t="inlineStr"/>
+      <c r="Y11" s="3" t="inlineStr"/>
+      <c r="Z11" s="3" t="inlineStr"/>
+      <c r="AA11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>304954</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Tipo-Tipo NHS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>TIPO-TIPO</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="inlineStr"/>
+      <c r="S12" s="3" t="inlineStr"/>
+      <c r="T12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
+      <c r="W12" s="3" t="inlineStr"/>
+      <c r="X12" s="3" t="inlineStr"/>
+      <c r="Y12" s="3" t="inlineStr"/>
+      <c r="Z12" s="3" t="inlineStr"/>
+      <c r="AA12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Basilan</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>133152</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Pipil ES</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>UNGKAYA PUKAN</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="L13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="inlineStr"/>
+      <c r="Q13" s="3" t="inlineStr"/>
+      <c r="R13" s="3" t="inlineStr"/>
+      <c r="S13" s="3" t="inlineStr"/>
+      <c r="T13" s="3" t="inlineStr"/>
+      <c r="U13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr"/>
+      <c r="W13" s="3" t="inlineStr"/>
+      <c r="X13" s="3" t="inlineStr"/>
+      <c r="Y13" s="3" t="inlineStr"/>
+      <c r="Z13" s="3" t="inlineStr"/>
+      <c r="AA13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Cotabato City</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>131260</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Datu Usman Elementary School</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>COTABATO CITY</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Repair of classrooms </t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>3000000</v>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>under procurement</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>under procurement</t>
-        </is>
-      </c>
+      <c r="O14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr"/>
+      <c r="T14" s="3" t="inlineStr"/>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr"/>
+      <c r="W14" s="3" t="inlineStr"/>
+      <c r="X14" s="3" t="inlineStr"/>
+      <c r="Y14" s="3" t="inlineStr"/>
+      <c r="Z14" s="3" t="inlineStr"/>
+      <c r="AA14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Lamitan City</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>132998</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Colony Central Elementary School</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>CITY OF LAMITAN</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr"/>
+      <c r="R15" s="3" t="inlineStr"/>
+      <c r="S15" s="3" t="inlineStr"/>
+      <c r="T15" s="3" t="inlineStr"/>
+      <c r="U15" s="3" t="inlineStr"/>
+      <c r="V15" s="3" t="inlineStr"/>
+      <c r="W15" s="3" t="inlineStr"/>
+      <c r="X15" s="3" t="inlineStr"/>
+      <c r="Y15" s="3" t="inlineStr"/>
+      <c r="Z15" s="3" t="inlineStr"/>
+      <c r="AA15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3" t="n">
         <v>133224</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Nusa ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>BALINDONG (WATU)</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr"/>
+      <c r="U16" s="3" t="inlineStr"/>
+      <c r="V16" s="3" t="inlineStr"/>
+      <c r="W16" s="3" t="inlineStr"/>
+      <c r="X16" s="3" t="inlineStr"/>
+      <c r="Y16" s="3" t="inlineStr"/>
+      <c r="Z16" s="3" t="inlineStr"/>
+      <c r="AA16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="3" t="n">
         <v>304960</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Buadiposo-Buntong NHS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>BUADIPOSO-BUNTONG</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="R17" s="3" t="inlineStr"/>
+      <c r="S17" s="3" t="inlineStr"/>
+      <c r="T17" s="3" t="inlineStr"/>
+      <c r="U17" s="3" t="inlineStr"/>
+      <c r="V17" s="3" t="inlineStr"/>
+      <c r="W17" s="3" t="inlineStr"/>
+      <c r="X17" s="3" t="inlineStr"/>
+      <c r="Y17" s="3" t="inlineStr"/>
+      <c r="Z17" s="3" t="inlineStr"/>
+      <c r="AA17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>324601</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Datu Mamintal Adiong Sr. Mem. NHS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>BUBONG</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr"/>
+      <c r="R18" s="3" t="inlineStr"/>
+      <c r="S18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr"/>
+      <c r="U18" s="3" t="inlineStr"/>
+      <c r="V18" s="3" t="inlineStr"/>
+      <c r="W18" s="3" t="inlineStr"/>
+      <c r="X18" s="3" t="inlineStr"/>
+      <c r="Y18" s="3" t="inlineStr"/>
+      <c r="Z18" s="3" t="inlineStr"/>
+      <c r="AA18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3" t="n">
         <v>133270</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>Buaya-an Elementary School</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>DITSAAN-RAMAIN</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="L19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="R19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr"/>
+      <c r="T19" s="3" t="inlineStr"/>
+      <c r="U19" s="3" t="inlineStr"/>
+      <c r="V19" s="3" t="inlineStr"/>
+      <c r="W19" s="3" t="inlineStr"/>
+      <c r="X19" s="3" t="inlineStr"/>
+      <c r="Y19" s="3" t="inlineStr"/>
+      <c r="Z19" s="3" t="inlineStr"/>
+      <c r="AA19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="3" t="n">
         <v>304968</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>Mangurun Memorial NHS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>KAPAI</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="L20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="inlineStr"/>
+      <c r="Q20" s="3" t="inlineStr"/>
+      <c r="R20" s="3" t="inlineStr"/>
+      <c r="S20" s="3" t="inlineStr"/>
+      <c r="T20" s="3" t="inlineStr"/>
+      <c r="U20" s="3" t="inlineStr"/>
+      <c r="V20" s="3" t="inlineStr"/>
+      <c r="W20" s="3" t="inlineStr"/>
+      <c r="X20" s="3" t="inlineStr"/>
+      <c r="Y20" s="3" t="inlineStr"/>
+      <c r="Z20" s="3" t="inlineStr"/>
+      <c r="AA20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="3" t="n">
         <v>304971</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Mulondo NHS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>MULONDO</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="L21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr"/>
+      <c r="R21" s="3" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr"/>
+      <c r="T21" s="3" t="inlineStr"/>
+      <c r="U21" s="3" t="inlineStr"/>
+      <c r="V21" s="3" t="inlineStr"/>
+      <c r="W21" s="3" t="inlineStr"/>
+      <c r="X21" s="3" t="inlineStr"/>
+      <c r="Y21" s="3" t="inlineStr"/>
+      <c r="Z21" s="3" t="inlineStr"/>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="3" t="n">
         <v>133451</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Saguiaran CES</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>SAGUIARAN</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="inlineStr"/>
+      <c r="Q22" s="3" t="inlineStr"/>
+      <c r="R22" s="3" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr"/>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr"/>
+      <c r="W22" s="3" t="inlineStr"/>
+      <c r="X22" s="3" t="inlineStr"/>
+      <c r="Y22" s="3" t="inlineStr"/>
+      <c r="Z22" s="3" t="inlineStr"/>
+      <c r="AA22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="3" t="n">
         <v>133293</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>Mimbaguiang ES</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>TAGOLOAN II</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="L23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="inlineStr"/>
+      <c r="Q23" s="3" t="inlineStr"/>
+      <c r="R23" s="3" t="inlineStr"/>
+      <c r="S23" s="3" t="inlineStr"/>
+      <c r="T23" s="3" t="inlineStr"/>
+      <c r="U23" s="3" t="inlineStr"/>
+      <c r="V23" s="3" t="inlineStr"/>
+      <c r="W23" s="3" t="inlineStr"/>
+      <c r="X23" s="3" t="inlineStr"/>
+      <c r="Y23" s="3" t="inlineStr"/>
+      <c r="Z23" s="3" t="inlineStr"/>
+      <c r="AA23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - I</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="3" t="n">
         <v>318118</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>Johayver Maulana NHS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>TARAKA</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="L24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr"/>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
+      <c r="X24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="inlineStr"/>
+      <c r="Z24" s="3" t="inlineStr"/>
+      <c r="AA24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - II</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3" t="n">
         <v>133784</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>Ngingir Elementary School</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>CALANOGAS</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="L25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr"/>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr"/>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="inlineStr"/>
+      <c r="X25" s="3" t="inlineStr"/>
+      <c r="Y25" s="3" t="inlineStr"/>
+      <c r="Z25" s="3" t="inlineStr"/>
+      <c r="AA25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - II</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="3" t="n">
         <v>133586</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Don Pablo Hofer ES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>KAPATAGAN</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="L26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="inlineStr"/>
+      <c r="X26" s="3" t="inlineStr"/>
+      <c r="Y26" s="3" t="inlineStr"/>
+      <c r="Z26" s="3" t="inlineStr"/>
+      <c r="AA26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - II</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="3" t="n">
         <v>133678</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>Beta Elementary School</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>LUMBACA-UNAYAN</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="L27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3" t="inlineStr"/>
+      <c r="N27" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="inlineStr"/>
+      <c r="Q27" s="3" t="inlineStr"/>
+      <c r="R27" s="3" t="inlineStr"/>
+      <c r="S27" s="3" t="inlineStr"/>
+      <c r="T27" s="3" t="inlineStr"/>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="inlineStr"/>
+      <c r="X27" s="3" t="inlineStr"/>
+      <c r="Y27" s="3" t="inlineStr"/>
+      <c r="Z27" s="3" t="inlineStr"/>
+      <c r="AA27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - II</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3" t="n">
         <v>133846</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Tangcal Central Elementary School</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>TUBARAN</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="L28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3" t="inlineStr"/>
+      <c r="N28" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3" t="inlineStr"/>
+      <c r="Q28" s="3" t="inlineStr"/>
+      <c r="R28" s="3" t="inlineStr"/>
+      <c r="S28" s="3" t="inlineStr"/>
+      <c r="T28" s="3" t="inlineStr"/>
+      <c r="U28" s="3" t="inlineStr"/>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="inlineStr"/>
+      <c r="X28" s="3" t="inlineStr"/>
+      <c r="Y28" s="3" t="inlineStr"/>
+      <c r="Z28" s="3" t="inlineStr"/>
+      <c r="AA28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Lanao del Sur - II</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3" t="n">
         <v>133858</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>Tugaya Central Elementary School</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>TUGAYA</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="L29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr"/>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr"/>
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr"/>
+      <c r="X29" s="3" t="inlineStr"/>
+      <c r="Y29" s="3" t="inlineStr"/>
+      <c r="Z29" s="3" t="inlineStr"/>
+      <c r="AA29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Maguindanao I</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="3" t="n">
         <v>134200</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>Macasampen ES</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>GUINDULUNGAN</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr"/>
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr"/>
+      <c r="X30" s="3" t="inlineStr"/>
+      <c r="Y30" s="3" t="inlineStr"/>
+      <c r="Z30" s="3" t="inlineStr"/>
+      <c r="AA30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Maguindanao I</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="3" t="n">
         <v>134132</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>Libutan ES</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>MAMASAPANO</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="L31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr"/>
+      <c r="U31" s="3" t="inlineStr"/>
+      <c r="V31" s="3" t="inlineStr"/>
+      <c r="W31" s="3" t="inlineStr"/>
+      <c r="X31" s="3" t="inlineStr"/>
+      <c r="Y31" s="3" t="inlineStr"/>
+      <c r="Z31" s="3" t="inlineStr"/>
+      <c r="AA31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Maguindanao I</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="3" t="n">
         <v>318310</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>Sapakan NHS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>RAJAH BUAYAN</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="L32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr"/>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr"/>
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
+      <c r="X32" s="3" t="inlineStr"/>
+      <c r="Y32" s="3" t="inlineStr"/>
+      <c r="Z32" s="3" t="inlineStr"/>
+      <c r="AA32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Maguindanao I</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="3" t="n">
         <v>134197</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>Kalantungan ES</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>TALAYAN</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="L33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr"/>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
+      <c r="X33" s="3" t="inlineStr"/>
+      <c r="Y33" s="3" t="inlineStr"/>
+      <c r="Z33" s="3" t="inlineStr"/>
+      <c r="AA33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Maguindanao II</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="3" t="n">
         <v>133930</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>Raranaon ES</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>BULDON</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="L34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr"/>
+      <c r="Y34" s="3" t="inlineStr"/>
+      <c r="Z34" s="3" t="inlineStr"/>
+      <c r="AA34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Maguindanao II</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="3" t="n">
         <v>134275</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>Datu Sa Biwang ES</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>DATU BLAH T. SINSUAT</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="L35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr"/>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr"/>
+      <c r="U35" s="3" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
+      <c r="X35" s="3" t="inlineStr"/>
+      <c r="Y35" s="3" t="inlineStr"/>
+      <c r="Z35" s="3" t="inlineStr"/>
+      <c r="AA35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Maguindanao II</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="3" t="n">
         <v>133990</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>Capiton PS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>DATU ODIN SINSUAT (DINAIG)</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="L36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
+      <c r="X36" s="3" t="inlineStr"/>
+      <c r="Y36" s="3" t="inlineStr"/>
+      <c r="Z36" s="3" t="inlineStr"/>
+      <c r="AA36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Maguindanao II</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="3" t="n">
         <v>318325</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>Datu Alamanza Dilangalen NHS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>NORTHERN KABUNTALAN</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr"/>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
+      <c r="W37" s="3" t="inlineStr"/>
+      <c r="X37" s="3" t="inlineStr"/>
+      <c r="Y37" s="3" t="inlineStr"/>
+      <c r="Z37" s="3" t="inlineStr"/>
+      <c r="AA37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Marawi City</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="3" t="n">
         <v>318607</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>Bacarat Memorial National H/S</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>MARAWI CITY</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr"/>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+      <c r="X38" s="3" t="inlineStr"/>
+      <c r="Y38" s="3" t="inlineStr"/>
+      <c r="Z38" s="3" t="inlineStr"/>
+      <c r="AA38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Sulu</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="3" t="n">
         <v>134299</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>Bwansa Elementary School</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>INDANAN</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="L39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+      <c r="X39" s="3" t="inlineStr"/>
+      <c r="Y39" s="3" t="inlineStr"/>
+      <c r="Z39" s="3" t="inlineStr"/>
+      <c r="AA39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>Sulu</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="3" t="n">
         <v>134454</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>Lapa ES</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>MAIMBUNG</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="G40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="L40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr"/>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+      <c r="X40" s="3" t="inlineStr"/>
+      <c r="Y40" s="3" t="inlineStr"/>
+      <c r="Z40" s="3" t="inlineStr"/>
+      <c r="AA40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Sulu</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="3" t="n">
         <v>134488</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>Bowal Bowal ES</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>PANGUTARAN</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+      <c r="X41" s="3" t="inlineStr"/>
+      <c r="Y41" s="3" t="inlineStr"/>
+      <c r="Z41" s="3" t="inlineStr"/>
+      <c r="AA41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Sulu</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="3" t="n">
         <v>134555</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>Kadday Mampalam ES</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>PATIKUL</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="L42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr"/>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+      <c r="W42" s="3" t="inlineStr"/>
+      <c r="X42" s="3" t="inlineStr"/>
+      <c r="Y42" s="3" t="inlineStr"/>
+      <c r="Z42" s="3" t="inlineStr"/>
+      <c r="AA42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Sulu</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="3" t="n">
         <v>134478</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>Panglima Agga Central School</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>OLD PANAMAO</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="L43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
+      <c r="X43" s="3" t="inlineStr"/>
+      <c r="Y43" s="3" t="inlineStr"/>
+      <c r="Z43" s="3" t="inlineStr"/>
+      <c r="AA43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Tawi-Tawi</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="3" t="n">
         <v>134686</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>Batu-Batu Central School</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>PANGLIMA SUGALA (BALIMBING) (Capital)</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
+      <c r="X44" s="3" t="inlineStr"/>
+      <c r="Y44" s="3" t="inlineStr"/>
+      <c r="Z44" s="3" t="inlineStr"/>
+      <c r="AA44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Tawi-Tawi</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="3" t="n">
         <v>134810</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>Lawm Sikubong ES</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>SAPA-SAPA</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="L45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
+      <c r="W45" s="3" t="inlineStr"/>
+      <c r="X45" s="3" t="inlineStr"/>
+      <c r="Y45" s="3" t="inlineStr"/>
+      <c r="Z45" s="3" t="inlineStr"/>
+      <c r="AA45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Tawi-Tawi</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="3" t="n">
         <v>134832</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>Talisay ES</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>SIBUTU</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="L46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr"/>
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
+      <c r="W46" s="3" t="inlineStr"/>
+      <c r="X46" s="3" t="inlineStr"/>
+      <c r="Y46" s="3" t="inlineStr"/>
+      <c r="Z46" s="3" t="inlineStr"/>
+      <c r="AA46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Tawi-Tawi</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="3" t="n">
         <v>305057</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>Manuk Mangkaw NHS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>SIMUNUL</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="L47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr"/>
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr"/>
+      <c r="W47" s="3" t="inlineStr"/>
+      <c r="X47" s="3" t="inlineStr"/>
+      <c r="Y47" s="3" t="inlineStr"/>
+      <c r="Z47" s="3" t="inlineStr"/>
+      <c r="AA47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2021</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>BARMM</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Tawi-Tawi</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="3" t="n">
         <v>134774</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>Taganak ES</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>TURTLE ISLANDS</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="L48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="inlineStr"/>
+      <c r="Q48" s="3" t="inlineStr"/>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
+      <c r="W48" s="3" t="inlineStr"/>
+      <c r="X48" s="3" t="inlineStr"/>
+      <c r="Y48" s="3" t="inlineStr"/>
+      <c r="Z48" s="3" t="inlineStr"/>
+      <c r="AA48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AV2:AV48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AM2:AM48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
